--- a/開発課課題DB.xlsx
+++ b/開発課課題DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/09b64b4d2cabf196/デスクトップ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_AD4D066CA252ABDACC104810A994EE4272EEDF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E062D4F2-9505-4739-B4FA-F2F71828A676}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_AD4D066CA252ABDACC104810A994EE4272EEDF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA106CB0-EB42-4A69-AC86-81EB2AEA3E9D}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="-16200" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一覧" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="キャラ名">一覧!$B$2:$B$30</definedName>
     <definedName name="レベル">一覧!$E$2:$E$16</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="98">
   <si>
     <t>キャラ名</t>
     <rPh sb="3" eb="4">
@@ -51,10 +51,6 @@
   </si>
   <si>
     <t>エースバーン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カビゴン</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -142,26 +138,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3*</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0*</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>7*</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4*</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>32*</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>基礎値</t>
     <rPh sb="0" eb="2">
       <t>キソ</t>
@@ -238,6 +214,272 @@
   </si>
   <si>
     <t>ほのおのうず</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルカリオ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>でんこうせっか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しんそく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グロウパンチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメットパンチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボーンラッシュ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インファイト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲッコウガ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あわ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みずしゅりけん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なみのり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みがわり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かげぶんしん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>えんまく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リーフィア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スピードスター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はっぱカッター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソーラーブレード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つばめがえし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リーフブレード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイアロー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つつく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクロバット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そらをとぶ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブレイブバード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ギルガルド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かげうち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>せいなるつるぎ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シャドークロー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>てっぺき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワイドガード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイアンヘッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アローラキュウコン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こなゆき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゆきなだれ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マジカルシャイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こごえるかぜ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふぶき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーロラベール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エーフィ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アシストパワー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なきごえ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイケこうせん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウッウ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うずしお</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダイビング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェザーダンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぼうふう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エアスラッシュ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バシャーモ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほのおのパンチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーバーヒート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きあいだま</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マフォクシー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特攻</t>
+    <rPh sb="0" eb="2">
+      <t>トクコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルカリオ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲッコウガ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リーフィア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイアロー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ギルガルド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アローラキュウコン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エーフィ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウッウ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バシャーモ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -281,13 +523,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -572,7 +813,7 @@
   <dimension ref="B1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G11:G12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -582,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="2:5">
@@ -593,7 +834,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -612,56 +853,110 @@
     </row>
     <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:5">
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
       <c r="E5">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:5">
+      <c r="B6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
       <c r="E6">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:5">
+      <c r="B7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
       <c r="E7">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:5">
+      <c r="B8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
       <c r="E8">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:5">
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
       <c r="E9">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:5">
+      <c r="B10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" t="s">
+        <v>87</v>
+      </c>
       <c r="E10">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="2:5">
+      <c r="B11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
       <c r="E11">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="2:5">
+      <c r="B12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" t="s">
+        <v>87</v>
+      </c>
       <c r="E12">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="2:5">
+      <c r="B13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" t="s">
+        <v>89</v>
+      </c>
       <c r="E13">
         <v>12</v>
       </c>
@@ -689,11 +984,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B1A2A2-8820-41C1-BA8A-07F5D2962B98}">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="B1:Q15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -703,62 +997,134 @@
     <row r="1" spans="2:17" ht="3.75" customHeight="1"/>
     <row r="2" spans="2:17">
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
       <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:17">
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="G3">
+        <v>13</v>
+      </c>
       <c r="H3">
         <v>-1</v>
       </c>
+      <c r="I3">
+        <v>240</v>
+      </c>
     </row>
     <row r="4" spans="2:17">
-      <c r="F4" s="1"/>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
       <c r="H4">
         <v>-1</v>
       </c>
+      <c r="I4">
+        <v>190</v>
+      </c>
     </row>
     <row r="5" spans="2:17">
-      <c r="F5" s="1"/>
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>-1</v>
+      </c>
+      <c r="I5">
+        <v>320</v>
+      </c>
     </row>
     <row r="6" spans="2:17">
-      <c r="F6" s="1"/>
+      <c r="E6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.22</v>
+      </c>
+      <c r="G6">
+        <v>14</v>
+      </c>
       <c r="H6">
         <v>-1</v>
       </c>
+      <c r="I6">
+        <v>240</v>
+      </c>
     </row>
     <row r="7" spans="2:17">
-      <c r="F7" s="1"/>
+      <c r="E7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2.73</v>
+      </c>
+      <c r="G7">
+        <v>28</v>
+      </c>
       <c r="H7">
         <v>-1</v>
       </c>
+      <c r="I7">
+        <v>1750</v>
+      </c>
     </row>
     <row r="8" spans="2:17">
-      <c r="F8" s="1"/>
-      <c r="H8">
-        <v>-1</v>
+      <c r="E8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:17" ht="3.75" customHeight="1"/>
     <row r="10" spans="2:17">
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -808,27 +1174,252 @@
     </row>
     <row r="11" spans="2:17">
       <c r="B11" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>3197</v>
+      </c>
+      <c r="D11">
+        <v>3266</v>
+      </c>
+      <c r="E11">
+        <v>3345</v>
+      </c>
+      <c r="F11">
+        <v>3747</v>
+      </c>
+      <c r="G11">
+        <v>3852</v>
+      </c>
+      <c r="H11">
+        <v>3972</v>
+      </c>
+      <c r="I11">
+        <v>4110</v>
+      </c>
+      <c r="J11">
+        <v>4269</v>
+      </c>
+      <c r="K11">
+        <v>4452</v>
+      </c>
+      <c r="L11">
+        <v>4663</v>
+      </c>
+      <c r="M11">
+        <v>4906</v>
+      </c>
+      <c r="N11">
+        <v>5185</v>
+      </c>
+      <c r="O11">
+        <v>5506</v>
+      </c>
+      <c r="P11">
+        <v>5875</v>
+      </c>
+      <c r="Q11">
+        <v>6299</v>
       </c>
     </row>
     <row r="12" spans="2:17">
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>134</v>
+      </c>
+      <c r="D12">
+        <v>137</v>
+      </c>
+      <c r="E12">
+        <v>141</v>
+      </c>
+      <c r="F12">
+        <v>161</v>
+      </c>
+      <c r="G12">
+        <v>166</v>
+      </c>
+      <c r="H12">
+        <v>172</v>
+      </c>
+      <c r="I12">
+        <v>179</v>
+      </c>
+      <c r="J12">
+        <v>187</v>
+      </c>
+      <c r="K12">
+        <v>196</v>
+      </c>
+      <c r="L12">
+        <v>207</v>
+      </c>
+      <c r="M12">
+        <v>219</v>
+      </c>
+      <c r="N12">
+        <v>233</v>
+      </c>
+      <c r="O12">
+        <v>249</v>
+      </c>
+      <c r="P12">
+        <v>268</v>
+      </c>
+      <c r="Q12">
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="2:17">
       <c r="B13" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>35</v>
+      </c>
+      <c r="D13">
+        <v>38</v>
+      </c>
+      <c r="E13">
+        <v>42</v>
+      </c>
+      <c r="F13">
+        <v>60</v>
+      </c>
+      <c r="G13">
+        <v>65</v>
+      </c>
+      <c r="H13">
+        <v>70</v>
+      </c>
+      <c r="I13">
+        <v>76</v>
+      </c>
+      <c r="J13">
+        <v>83</v>
+      </c>
+      <c r="K13">
+        <v>91</v>
+      </c>
+      <c r="L13">
+        <v>101</v>
+      </c>
+      <c r="M13">
+        <v>112</v>
+      </c>
+      <c r="N13">
+        <v>125</v>
+      </c>
+      <c r="O13">
+        <v>139</v>
+      </c>
+      <c r="P13">
+        <v>156</v>
+      </c>
+      <c r="Q13">
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="2:17">
       <c r="B14" t="s">
-        <v>26</v>
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>51</v>
+      </c>
+      <c r="D14">
+        <v>72</v>
+      </c>
+      <c r="E14">
+        <v>96</v>
+      </c>
+      <c r="F14">
+        <v>219</v>
+      </c>
+      <c r="G14">
+        <v>251</v>
+      </c>
+      <c r="H14">
+        <v>288</v>
+      </c>
+      <c r="I14">
+        <v>330</v>
+      </c>
+      <c r="J14">
+        <v>379</v>
+      </c>
+      <c r="K14">
+        <v>435</v>
+      </c>
+      <c r="L14">
+        <v>500</v>
+      </c>
+      <c r="M14">
+        <v>574</v>
+      </c>
+      <c r="N14">
+        <v>660</v>
+      </c>
+      <c r="O14">
+        <v>759</v>
+      </c>
+      <c r="P14">
+        <v>872</v>
+      </c>
+      <c r="Q14">
+        <v>1002</v>
       </c>
     </row>
     <row r="15" spans="2:17">
       <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15">
         <v>27</v>
+      </c>
+      <c r="D15">
+        <v>29</v>
+      </c>
+      <c r="E15">
+        <v>32</v>
+      </c>
+      <c r="F15">
+        <v>46</v>
+      </c>
+      <c r="G15">
+        <v>50</v>
+      </c>
+      <c r="H15">
+        <v>54</v>
+      </c>
+      <c r="I15">
+        <v>59</v>
+      </c>
+      <c r="J15">
+        <v>65</v>
+      </c>
+      <c r="K15">
+        <v>71</v>
+      </c>
+      <c r="L15">
+        <v>78</v>
+      </c>
+      <c r="M15">
+        <v>86</v>
+      </c>
+      <c r="N15">
+        <v>96</v>
+      </c>
+      <c r="O15">
+        <v>107</v>
+      </c>
+      <c r="P15">
+        <v>120</v>
+      </c>
+      <c r="Q15">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -842,11 +1433,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6190AB3B-B007-4036-B37F-F049556DE7DE}">
+  <sheetPr codeName="Sheet11"/>
   <dimension ref="B1:Q15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -856,62 +1446,137 @@
     <row r="1" spans="2:17" ht="3.75" customHeight="1"/>
     <row r="2" spans="2:17">
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
       <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:17">
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="G3">
+        <v>19</v>
+      </c>
       <c r="H3">
         <v>-1</v>
       </c>
+      <c r="I3">
+        <v>360</v>
+      </c>
     </row>
     <row r="4" spans="2:17">
-      <c r="F4" s="1"/>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="G4">
+        <v>13</v>
+      </c>
       <c r="H4">
         <v>-1</v>
       </c>
+      <c r="I4">
+        <v>340</v>
+      </c>
     </row>
     <row r="5" spans="2:17">
-      <c r="F5" s="1"/>
+      <c r="E5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G5">
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <v>-1</v>
+      </c>
+      <c r="I5">
+        <v>300</v>
+      </c>
     </row>
     <row r="6" spans="2:17">
-      <c r="F6" s="1"/>
+      <c r="E6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G6">
+        <v>15</v>
+      </c>
       <c r="H6">
         <v>-1</v>
       </c>
+      <c r="I6">
+        <v>290</v>
+      </c>
     </row>
     <row r="7" spans="2:17">
-      <c r="F7" s="1"/>
+      <c r="E7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="G7">
+        <v>13</v>
+      </c>
       <c r="H7">
         <v>-1</v>
       </c>
+      <c r="I7">
+        <v>540</v>
+      </c>
     </row>
     <row r="8" spans="2:17">
-      <c r="F8" s="1"/>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
       <c r="H8">
         <v>-1</v>
+      </c>
+      <c r="I8">
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="2:17" ht="3.75" customHeight="1"/>
     <row r="10" spans="2:17">
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -961,27 +1626,252 @@
     </row>
     <row r="11" spans="2:17">
       <c r="B11" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>3200</v>
+      </c>
+      <c r="D11">
+        <v>3269</v>
+      </c>
+      <c r="E11">
+        <v>3349</v>
+      </c>
+      <c r="F11">
+        <v>3753</v>
+      </c>
+      <c r="G11">
+        <v>3858</v>
+      </c>
+      <c r="H11">
+        <v>3979</v>
+      </c>
+      <c r="I11">
+        <v>4118</v>
+      </c>
+      <c r="J11">
+        <v>4278</v>
+      </c>
+      <c r="K11">
+        <v>4462</v>
+      </c>
+      <c r="L11">
+        <v>4674</v>
+      </c>
+      <c r="M11">
+        <v>4918</v>
+      </c>
+      <c r="N11">
+        <v>5199</v>
+      </c>
+      <c r="O11">
+        <v>5522</v>
+      </c>
+      <c r="P11">
+        <v>5893</v>
+      </c>
+      <c r="Q11">
+        <v>6320</v>
       </c>
     </row>
     <row r="12" spans="2:17">
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>134</v>
+      </c>
+      <c r="D12">
+        <v>137</v>
+      </c>
+      <c r="E12">
+        <v>141</v>
+      </c>
+      <c r="F12">
+        <v>161</v>
+      </c>
+      <c r="G12">
+        <v>166</v>
+      </c>
+      <c r="H12">
+        <v>172</v>
+      </c>
+      <c r="I12">
+        <v>179</v>
+      </c>
+      <c r="J12">
+        <v>187</v>
+      </c>
+      <c r="K12">
+        <v>196</v>
+      </c>
+      <c r="L12">
+        <v>207</v>
+      </c>
+      <c r="M12">
+        <v>219</v>
+      </c>
+      <c r="N12">
+        <v>233</v>
+      </c>
+      <c r="O12">
+        <v>249</v>
+      </c>
+      <c r="P12">
+        <v>268</v>
+      </c>
+      <c r="Q12">
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="2:17">
       <c r="B13" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>35</v>
+      </c>
+      <c r="D13">
+        <v>38</v>
+      </c>
+      <c r="E13">
+        <v>42</v>
+      </c>
+      <c r="F13">
+        <v>60</v>
+      </c>
+      <c r="G13">
+        <v>65</v>
+      </c>
+      <c r="H13">
+        <v>70</v>
+      </c>
+      <c r="I13">
+        <v>76</v>
+      </c>
+      <c r="J13">
+        <v>83</v>
+      </c>
+      <c r="K13">
+        <v>91</v>
+      </c>
+      <c r="L13">
+        <v>101</v>
+      </c>
+      <c r="M13">
+        <v>112</v>
+      </c>
+      <c r="N13">
+        <v>125</v>
+      </c>
+      <c r="O13">
+        <v>139</v>
+      </c>
+      <c r="P13">
+        <v>156</v>
+      </c>
+      <c r="Q13">
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="2:17">
       <c r="B14" t="s">
-        <v>26</v>
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>50</v>
+      </c>
+      <c r="D14">
+        <v>71</v>
+      </c>
+      <c r="E14">
+        <v>95</v>
+      </c>
+      <c r="F14">
+        <v>218</v>
+      </c>
+      <c r="G14">
+        <v>250</v>
+      </c>
+      <c r="H14">
+        <v>287</v>
+      </c>
+      <c r="I14">
+        <v>329</v>
+      </c>
+      <c r="J14">
+        <v>378</v>
+      </c>
+      <c r="K14">
+        <v>434</v>
+      </c>
+      <c r="L14">
+        <v>499</v>
+      </c>
+      <c r="M14">
+        <v>573</v>
+      </c>
+      <c r="N14">
+        <v>658</v>
+      </c>
+      <c r="O14">
+        <v>756</v>
+      </c>
+      <c r="P14">
+        <v>869</v>
+      </c>
+      <c r="Q14">
+        <v>999</v>
       </c>
     </row>
     <row r="15" spans="2:17">
       <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15">
         <v>27</v>
+      </c>
+      <c r="D15">
+        <v>29</v>
+      </c>
+      <c r="E15">
+        <v>32</v>
+      </c>
+      <c r="F15">
+        <v>46</v>
+      </c>
+      <c r="G15">
+        <v>50</v>
+      </c>
+      <c r="H15">
+        <v>54</v>
+      </c>
+      <c r="I15">
+        <v>59</v>
+      </c>
+      <c r="J15">
+        <v>65</v>
+      </c>
+      <c r="K15">
+        <v>71</v>
+      </c>
+      <c r="L15">
+        <v>78</v>
+      </c>
+      <c r="M15">
+        <v>86</v>
+      </c>
+      <c r="N15">
+        <v>96</v>
+      </c>
+      <c r="O15">
+        <v>107</v>
+      </c>
+      <c r="P15">
+        <v>120</v>
+      </c>
+      <c r="Q15">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -995,11 +1885,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808F80FA-5FC8-45CB-9731-CFF5752B90D4}">
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="B1:Q15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -1009,62 +1898,134 @@
     <row r="1" spans="2:17" ht="3.75" customHeight="1"/>
     <row r="2" spans="2:17">
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
       <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:17">
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2.82</v>
+      </c>
+      <c r="G3">
+        <v>64</v>
+      </c>
       <c r="H3">
         <v>-1</v>
       </c>
+      <c r="I3">
+        <v>1140</v>
+      </c>
     </row>
     <row r="4" spans="2:17">
-      <c r="F4" s="1"/>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.875</v>
+      </c>
+      <c r="G4">
+        <v>23</v>
+      </c>
       <c r="H4">
         <v>-1</v>
       </c>
+      <c r="I4">
+        <v>975</v>
+      </c>
     </row>
     <row r="5" spans="2:17">
-      <c r="F5" s="1"/>
+      <c r="E5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="G5">
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <v>-1</v>
+      </c>
+      <c r="I5">
+        <v>180</v>
+      </c>
     </row>
     <row r="6" spans="2:17">
-      <c r="F6" s="1"/>
-      <c r="H6">
-        <v>-1</v>
+      <c r="E6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:17">
-      <c r="F7" s="1"/>
+      <c r="E7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G7">
+        <v>11</v>
+      </c>
       <c r="H7">
         <v>-1</v>
       </c>
+      <c r="I7">
+        <v>620</v>
+      </c>
     </row>
     <row r="8" spans="2:17">
-      <c r="F8" s="1"/>
+      <c r="E8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="G8">
+        <v>30</v>
+      </c>
       <c r="H8">
         <v>-1</v>
+      </c>
+      <c r="I8">
+        <v>750</v>
       </c>
     </row>
     <row r="9" spans="2:17" ht="3.75" customHeight="1"/>
     <row r="10" spans="2:17">
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1114,27 +2075,252 @@
     </row>
     <row r="11" spans="2:17">
       <c r="B11" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>3292</v>
+      </c>
+      <c r="D11">
+        <v>3399</v>
+      </c>
+      <c r="E11">
+        <v>3517</v>
+      </c>
+      <c r="F11">
+        <v>3647</v>
+      </c>
+      <c r="G11">
+        <v>3789</v>
+      </c>
+      <c r="H11">
+        <v>3946</v>
+      </c>
+      <c r="I11">
+        <v>4118</v>
+      </c>
+      <c r="J11">
+        <v>4308</v>
+      </c>
+      <c r="K11">
+        <v>4517</v>
+      </c>
+      <c r="L11">
+        <v>4748</v>
+      </c>
+      <c r="M11">
+        <v>5002</v>
+      </c>
+      <c r="N11">
+        <v>5281</v>
+      </c>
+      <c r="O11">
+        <v>5589</v>
+      </c>
+      <c r="P11">
+        <v>5928</v>
+      </c>
+      <c r="Q11">
+        <v>6301</v>
       </c>
     </row>
     <row r="12" spans="2:17">
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>134</v>
+      </c>
+      <c r="D12">
+        <v>139</v>
+      </c>
+      <c r="E12">
+        <v>145</v>
+      </c>
+      <c r="F12">
+        <v>151</v>
+      </c>
+      <c r="G12">
+        <v>158</v>
+      </c>
+      <c r="H12">
+        <v>166</v>
+      </c>
+      <c r="I12">
+        <v>175</v>
+      </c>
+      <c r="J12">
+        <v>185</v>
+      </c>
+      <c r="K12">
+        <v>196</v>
+      </c>
+      <c r="L12">
+        <v>208</v>
+      </c>
+      <c r="M12">
+        <v>221</v>
+      </c>
+      <c r="N12">
+        <v>235</v>
+      </c>
+      <c r="O12">
+        <v>250</v>
+      </c>
+      <c r="P12">
+        <v>267</v>
+      </c>
+      <c r="Q12">
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="2:17">
       <c r="B13" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>60</v>
+      </c>
+      <c r="D13">
+        <v>69</v>
+      </c>
+      <c r="E13">
+        <v>78</v>
+      </c>
+      <c r="F13">
+        <v>88</v>
+      </c>
+      <c r="G13">
+        <v>99</v>
+      </c>
+      <c r="H13">
+        <v>112</v>
+      </c>
+      <c r="I13">
+        <v>126</v>
+      </c>
+      <c r="J13">
+        <v>141</v>
+      </c>
+      <c r="K13">
+        <v>158</v>
+      </c>
+      <c r="L13">
+        <v>176</v>
+      </c>
+      <c r="M13">
+        <v>196</v>
+      </c>
+      <c r="N13">
+        <v>218</v>
+      </c>
+      <c r="O13">
+        <v>243</v>
+      </c>
+      <c r="P13">
+        <v>270</v>
+      </c>
+      <c r="Q13">
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="2:17">
       <c r="B14" t="s">
-        <v>26</v>
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>50</v>
+      </c>
+      <c r="D14">
+        <v>75</v>
+      </c>
+      <c r="E14">
+        <v>102</v>
+      </c>
+      <c r="F14">
+        <v>132</v>
+      </c>
+      <c r="G14">
+        <v>165</v>
+      </c>
+      <c r="H14">
+        <v>201</v>
+      </c>
+      <c r="I14">
+        <v>240</v>
+      </c>
+      <c r="J14">
+        <v>283</v>
+      </c>
+      <c r="K14">
+        <v>331</v>
+      </c>
+      <c r="L14">
+        <v>384</v>
+      </c>
+      <c r="M14">
+        <v>442</v>
+      </c>
+      <c r="N14">
+        <v>506</v>
+      </c>
+      <c r="O14">
+        <v>576</v>
+      </c>
+      <c r="P14">
+        <v>654</v>
+      </c>
+      <c r="Q14">
+        <v>739</v>
       </c>
     </row>
     <row r="15" spans="2:17">
       <c r="B15" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>40</v>
+      </c>
+      <c r="D15">
+        <v>46</v>
+      </c>
+      <c r="E15">
+        <v>52</v>
+      </c>
+      <c r="F15">
+        <v>59</v>
+      </c>
+      <c r="G15">
+        <v>67</v>
+      </c>
+      <c r="H15">
+        <v>75</v>
+      </c>
+      <c r="I15">
+        <v>84</v>
+      </c>
+      <c r="J15">
+        <v>94</v>
+      </c>
+      <c r="K15">
+        <v>105</v>
+      </c>
+      <c r="L15">
+        <v>117</v>
+      </c>
+      <c r="M15">
+        <v>131</v>
+      </c>
+      <c r="N15">
+        <v>146</v>
+      </c>
+      <c r="O15">
+        <v>162</v>
+      </c>
+      <c r="P15">
+        <v>180</v>
+      </c>
+      <c r="Q15">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -1148,11 +2334,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC26807B-1307-450D-BC21-635007D495BC}">
+  <sheetPr codeName="Sheet13"/>
   <dimension ref="B1:Q15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -1162,62 +2347,137 @@
     <row r="1" spans="2:17" ht="3.75" customHeight="1"/>
     <row r="2" spans="2:17">
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
       <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:17">
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
       <c r="H3">
         <v>-1</v>
       </c>
+      <c r="I3">
+        <v>190</v>
+      </c>
     </row>
     <row r="4" spans="2:17">
-      <c r="F4" s="1"/>
+      <c r="E4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
       <c r="H4">
         <v>-1</v>
       </c>
+      <c r="I4">
+        <v>130</v>
+      </c>
     </row>
     <row r="5" spans="2:17">
-      <c r="F5" s="1"/>
+      <c r="E5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="G5">
+        <v>19</v>
+      </c>
+      <c r="H5">
+        <v>-1</v>
+      </c>
+      <c r="I5">
+        <v>790</v>
+      </c>
     </row>
     <row r="6" spans="2:17">
-      <c r="F6" s="1"/>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.26</v>
+      </c>
+      <c r="G6">
+        <v>9</v>
+      </c>
       <c r="H6">
         <v>-1</v>
       </c>
+      <c r="I6">
+        <v>290</v>
+      </c>
     </row>
     <row r="7" spans="2:17">
-      <c r="F7" s="1"/>
+      <c r="E7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1.94</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
       <c r="H7">
         <v>-1</v>
       </c>
+      <c r="I7">
+        <v>440</v>
+      </c>
     </row>
     <row r="8" spans="2:17">
-      <c r="F8" s="1"/>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.44</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
       <c r="H8">
         <v>-1</v>
+      </c>
+      <c r="I8">
+        <v>330</v>
       </c>
     </row>
     <row r="9" spans="2:17" ht="3.75" customHeight="1"/>
     <row r="10" spans="2:17">
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1267,27 +2527,252 @@
     </row>
     <row r="11" spans="2:17">
       <c r="B11" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>3250</v>
+      </c>
+      <c r="D11">
+        <v>3315</v>
+      </c>
+      <c r="E11">
+        <v>3393</v>
+      </c>
+      <c r="F11">
+        <v>3487</v>
+      </c>
+      <c r="G11">
+        <v>3827</v>
+      </c>
+      <c r="H11">
+        <v>3963</v>
+      </c>
+      <c r="I11">
+        <v>4581</v>
+      </c>
+      <c r="J11">
+        <v>4776</v>
+      </c>
+      <c r="K11">
+        <v>5010</v>
+      </c>
+      <c r="L11">
+        <v>5291</v>
+      </c>
+      <c r="M11">
+        <v>5628</v>
+      </c>
+      <c r="N11">
+        <v>6033</v>
+      </c>
+      <c r="O11">
+        <v>6518</v>
+      </c>
+      <c r="P11">
+        <v>7101</v>
+      </c>
+      <c r="Q11">
+        <v>7800</v>
       </c>
     </row>
     <row r="12" spans="2:17">
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>160</v>
+      </c>
+      <c r="D12">
+        <v>165</v>
+      </c>
+      <c r="E12">
+        <v>171</v>
+      </c>
+      <c r="F12">
+        <v>178</v>
+      </c>
+      <c r="G12">
+        <v>203</v>
+      </c>
+      <c r="H12">
+        <v>213</v>
+      </c>
+      <c r="I12">
+        <v>258</v>
+      </c>
+      <c r="J12">
+        <v>272</v>
+      </c>
+      <c r="K12">
+        <v>289</v>
+      </c>
+      <c r="L12">
+        <v>309</v>
+      </c>
+      <c r="M12">
+        <v>333</v>
+      </c>
+      <c r="N12">
+        <v>362</v>
+      </c>
+      <c r="O12">
+        <v>397</v>
+      </c>
+      <c r="P12">
+        <v>439</v>
+      </c>
+      <c r="Q12">
+        <v>490</v>
       </c>
     </row>
     <row r="13" spans="2:17">
       <c r="B13" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>80</v>
+      </c>
+      <c r="D13">
+        <v>85</v>
+      </c>
+      <c r="E13">
+        <v>92</v>
+      </c>
+      <c r="F13">
+        <v>100</v>
+      </c>
+      <c r="G13">
+        <v>128</v>
+      </c>
+      <c r="H13">
+        <v>139</v>
+      </c>
+      <c r="I13">
+        <v>190</v>
+      </c>
+      <c r="J13">
+        <v>206</v>
+      </c>
+      <c r="K13">
+        <v>226</v>
+      </c>
+      <c r="L13">
+        <v>249</v>
+      </c>
+      <c r="M13">
+        <v>277</v>
+      </c>
+      <c r="N13">
+        <v>311</v>
+      </c>
+      <c r="O13">
+        <v>351</v>
+      </c>
+      <c r="P13">
+        <v>400</v>
+      </c>
+      <c r="Q13">
+        <v>458</v>
       </c>
     </row>
     <row r="14" spans="2:17">
       <c r="B14" t="s">
-        <v>26</v>
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>23</v>
+      </c>
+      <c r="F14">
+        <v>25</v>
+      </c>
+      <c r="G14">
+        <v>32</v>
+      </c>
+      <c r="H14">
+        <v>35</v>
+      </c>
+      <c r="I14">
+        <v>48</v>
+      </c>
+      <c r="J14">
+        <v>52</v>
+      </c>
+      <c r="K14">
+        <v>57</v>
+      </c>
+      <c r="L14">
+        <v>63</v>
+      </c>
+      <c r="M14">
+        <v>70</v>
+      </c>
+      <c r="N14">
+        <v>78</v>
+      </c>
+      <c r="O14">
+        <v>88</v>
+      </c>
+      <c r="P14">
+        <v>100</v>
+      </c>
+      <c r="Q14">
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="2:17">
       <c r="B15" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>60</v>
+      </c>
+      <c r="D15">
+        <v>64</v>
+      </c>
+      <c r="E15">
+        <v>69</v>
+      </c>
+      <c r="F15">
+        <v>75</v>
+      </c>
+      <c r="G15">
+        <v>97</v>
+      </c>
+      <c r="H15">
+        <v>106</v>
+      </c>
+      <c r="I15">
+        <v>145</v>
+      </c>
+      <c r="J15">
+        <v>157</v>
+      </c>
+      <c r="K15">
+        <v>172</v>
+      </c>
+      <c r="L15">
+        <v>190</v>
+      </c>
+      <c r="M15">
+        <v>212</v>
+      </c>
+      <c r="N15">
+        <v>238</v>
+      </c>
+      <c r="O15">
+        <v>269</v>
+      </c>
+      <c r="P15">
+        <v>306</v>
+      </c>
+      <c r="Q15">
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -1304,7 +2789,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:Q15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -1314,40 +2799,40 @@
     <row r="1" spans="2:17" ht="3.75" customHeight="1"/>
     <row r="2" spans="2:17">
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:17">
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1">
         <v>0.36</v>
       </c>
-      <c r="G3" t="s">
-        <v>18</v>
+      <c r="G3">
+        <v>3</v>
       </c>
       <c r="H3">
         <v>-1</v>
@@ -1358,13 +2843,13 @@
     </row>
     <row r="4" spans="2:17">
       <c r="E4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1">
         <v>0.47</v>
       </c>
-      <c r="G4" t="s">
-        <v>18</v>
+      <c r="G4">
+        <v>3</v>
       </c>
       <c r="H4">
         <v>-1</v>
@@ -1375,13 +2860,13 @@
     </row>
     <row r="5" spans="2:17">
       <c r="E5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" t="s">
-        <v>19</v>
+      <c r="G5">
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1389,13 +2874,13 @@
     </row>
     <row r="6" spans="2:17">
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" t="s">
-        <v>20</v>
+      <c r="G6">
+        <v>7</v>
       </c>
       <c r="H6">
         <v>-1</v>
@@ -1406,13 +2891,13 @@
     </row>
     <row r="7" spans="2:17">
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" s="1">
         <v>0.48</v>
       </c>
-      <c r="G7" t="s">
-        <v>21</v>
+      <c r="G7">
+        <v>4</v>
       </c>
       <c r="H7">
         <v>-1</v>
@@ -1423,13 +2908,13 @@
     </row>
     <row r="8" spans="2:17">
       <c r="E8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" s="1">
         <v>3.45</v>
       </c>
-      <c r="G8" t="s">
-        <v>22</v>
+      <c r="G8">
+        <v>32</v>
       </c>
       <c r="H8">
         <v>-1</v>
@@ -1441,7 +2926,7 @@
     <row r="9" spans="2:17" ht="3.75" customHeight="1"/>
     <row r="10" spans="2:17">
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1491,7 +2976,7 @@
     </row>
     <row r="11" spans="2:17">
       <c r="B11" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>3000</v>
@@ -1541,7 +3026,7 @@
     </row>
     <row r="12" spans="2:17">
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12">
         <v>135</v>
@@ -1591,7 +3076,7 @@
     </row>
     <row r="13" spans="2:17">
       <c r="B13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C13">
         <v>50</v>
@@ -1641,7 +3126,7 @@
     </row>
     <row r="14" spans="2:17">
       <c r="B14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C14">
         <v>20</v>
@@ -1691,7 +3176,7 @@
     </row>
     <row r="15" spans="2:17">
       <c r="B15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C15">
         <v>30</v>
@@ -1750,6 +3235,458 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB4387C-34EC-4353-8EB8-2F3D9DCED8B2}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="B1:Q15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="0.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:17" ht="3.75" customHeight="1"/>
+    <row r="2" spans="2:17">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="G3">
+        <v>19</v>
+      </c>
+      <c r="H3">
+        <v>-1</v>
+      </c>
+      <c r="I3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17">
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="G4">
+        <v>16</v>
+      </c>
+      <c r="H4">
+        <v>-1</v>
+      </c>
+      <c r="I4">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17">
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="G5">
+        <v>13</v>
+      </c>
+      <c r="H5">
+        <v>-1</v>
+      </c>
+      <c r="I5">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17">
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17">
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>-1</v>
+      </c>
+      <c r="I7">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17">
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.49</v>
+      </c>
+      <c r="G8">
+        <v>21</v>
+      </c>
+      <c r="H8">
+        <v>-1</v>
+      </c>
+      <c r="I8">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" ht="3.75" customHeight="1"/>
+    <row r="10" spans="2:17">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <v>7</v>
+      </c>
+      <c r="J10">
+        <v>8</v>
+      </c>
+      <c r="K10">
+        <v>9</v>
+      </c>
+      <c r="L10">
+        <v>10</v>
+      </c>
+      <c r="M10">
+        <v>11</v>
+      </c>
+      <c r="N10">
+        <v>12</v>
+      </c>
+      <c r="O10">
+        <v>13</v>
+      </c>
+      <c r="P10">
+        <v>14</v>
+      </c>
+      <c r="Q10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17">
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>3200</v>
+      </c>
+      <c r="D11">
+        <v>3245</v>
+      </c>
+      <c r="E11">
+        <v>3299</v>
+      </c>
+      <c r="F11">
+        <v>3363</v>
+      </c>
+      <c r="G11">
+        <v>3596</v>
+      </c>
+      <c r="H11">
+        <v>3689</v>
+      </c>
+      <c r="I11">
+        <v>3801</v>
+      </c>
+      <c r="J11">
+        <v>4247</v>
+      </c>
+      <c r="K11">
+        <v>4408</v>
+      </c>
+      <c r="L11">
+        <v>4601</v>
+      </c>
+      <c r="M11">
+        <v>4832</v>
+      </c>
+      <c r="N11">
+        <v>5109</v>
+      </c>
+      <c r="O11">
+        <v>5442</v>
+      </c>
+      <c r="P11">
+        <v>5841</v>
+      </c>
+      <c r="Q11">
+        <v>6320</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17">
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>134</v>
+      </c>
+      <c r="D12">
+        <v>136</v>
+      </c>
+      <c r="E12">
+        <v>139</v>
+      </c>
+      <c r="F12">
+        <v>142</v>
+      </c>
+      <c r="G12">
+        <v>154</v>
+      </c>
+      <c r="H12">
+        <v>159</v>
+      </c>
+      <c r="I12">
+        <v>165</v>
+      </c>
+      <c r="J12">
+        <v>187</v>
+      </c>
+      <c r="K12">
+        <v>195</v>
+      </c>
+      <c r="L12">
+        <v>205</v>
+      </c>
+      <c r="M12">
+        <v>216</v>
+      </c>
+      <c r="N12">
+        <v>230</v>
+      </c>
+      <c r="O12">
+        <v>247</v>
+      </c>
+      <c r="P12">
+        <v>267</v>
+      </c>
+      <c r="Q12">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17">
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>35</v>
+      </c>
+      <c r="D13">
+        <v>37</v>
+      </c>
+      <c r="E13">
+        <v>39</v>
+      </c>
+      <c r="F13">
+        <v>42</v>
+      </c>
+      <c r="G13">
+        <v>52</v>
+      </c>
+      <c r="H13">
+        <v>56</v>
+      </c>
+      <c r="I13">
+        <v>61</v>
+      </c>
+      <c r="J13">
+        <v>81</v>
+      </c>
+      <c r="K13">
+        <v>88</v>
+      </c>
+      <c r="L13">
+        <v>97</v>
+      </c>
+      <c r="M13">
+        <v>107</v>
+      </c>
+      <c r="N13">
+        <v>119</v>
+      </c>
+      <c r="O13">
+        <v>134</v>
+      </c>
+      <c r="P13">
+        <v>152</v>
+      </c>
+      <c r="Q13">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17">
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>65</v>
+      </c>
+      <c r="D14">
+        <v>79</v>
+      </c>
+      <c r="E14">
+        <v>96</v>
+      </c>
+      <c r="F14">
+        <v>116</v>
+      </c>
+      <c r="G14">
+        <v>190</v>
+      </c>
+      <c r="H14">
+        <v>219</v>
+      </c>
+      <c r="I14">
+        <v>254</v>
+      </c>
+      <c r="J14">
+        <v>395</v>
+      </c>
+      <c r="K14">
+        <v>446</v>
+      </c>
+      <c r="L14">
+        <v>507</v>
+      </c>
+      <c r="M14">
+        <v>580</v>
+      </c>
+      <c r="N14">
+        <v>668</v>
+      </c>
+      <c r="O14">
+        <v>773</v>
+      </c>
+      <c r="P14">
+        <v>899</v>
+      </c>
+      <c r="Q14">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17">
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>27</v>
+      </c>
+      <c r="D15">
+        <v>29</v>
+      </c>
+      <c r="E15">
+        <v>31</v>
+      </c>
+      <c r="F15">
+        <v>33</v>
+      </c>
+      <c r="G15">
+        <v>41</v>
+      </c>
+      <c r="H15">
+        <v>44</v>
+      </c>
+      <c r="I15">
+        <v>48</v>
+      </c>
+      <c r="J15">
+        <v>64</v>
+      </c>
+      <c r="K15">
+        <v>70</v>
+      </c>
+      <c r="L15">
+        <v>77</v>
+      </c>
+      <c r="M15">
+        <v>85</v>
+      </c>
+      <c r="N15">
+        <v>95</v>
+      </c>
+      <c r="O15">
+        <v>107</v>
+      </c>
+      <c r="P15">
+        <v>121</v>
+      </c>
+      <c r="Q15">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G2:H2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34FF811B-0A96-44BC-B800-8ED1B0744A50}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1762,46 +3699,46 @@
     <row r="1" spans="2:17" ht="3.75" customHeight="1"/>
     <row r="2" spans="2:17">
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
       <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:17">
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1">
-        <v>0.83</v>
+        <v>0.93</v>
       </c>
       <c r="G3">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H3">
         <v>-1</v>
       </c>
       <c r="I3">
-        <v>350</v>
+        <v>540</v>
       </c>
     </row>
     <row r="4" spans="2:17">
@@ -1809,16 +3746,16 @@
         <v>29</v>
       </c>
       <c r="F4" s="1">
-        <v>0.85</v>
+        <v>1.8009999999999999</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="H4">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="I4">
-        <v>440</v>
+        <v>924</v>
       </c>
     </row>
     <row r="5" spans="2:17">
@@ -1826,16 +3763,16 @@
         <v>30</v>
       </c>
       <c r="F5" s="1">
-        <v>0.66</v>
+        <v>1.17</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H5">
         <v>-1</v>
       </c>
       <c r="I5">
-        <v>340</v>
+        <v>680</v>
       </c>
     </row>
     <row r="6" spans="2:17">
@@ -1843,13 +3780,16 @@
         <v>31</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="H6">
+        <v>-2</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7" spans="2:17">
@@ -1857,39 +3797,39 @@
         <v>32</v>
       </c>
       <c r="F7" s="1">
-        <v>0.85499999999999998</v>
+        <v>0.16</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H7">
         <v>-1</v>
       </c>
       <c r="I7">
-        <v>409</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="2:17">
       <c r="E8" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F8" s="1">
-        <v>1.49</v>
+        <v>0.46</v>
       </c>
       <c r="G8">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="H8">
         <v>-1</v>
       </c>
       <c r="I8">
-        <v>880</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="2:17" ht="3.75" customHeight="1"/>
     <row r="10" spans="2:17">
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1939,57 +3879,57 @@
     </row>
     <row r="11" spans="2:17">
       <c r="B11" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C11">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="D11">
-        <v>3245</v>
+        <v>3343</v>
       </c>
       <c r="E11">
-        <v>3299</v>
-      </c>
-      <c r="F11" s="3">
-        <v>3363</v>
-      </c>
-      <c r="G11" s="3">
-        <v>3596</v>
-      </c>
-      <c r="H11" s="3">
-        <v>3689</v>
-      </c>
-      <c r="I11" s="3">
-        <v>3801</v>
-      </c>
-      <c r="J11" s="3">
-        <v>4247</v>
-      </c>
-      <c r="K11" s="3">
-        <v>4408</v>
-      </c>
-      <c r="L11" s="3">
-        <v>4601</v>
-      </c>
-      <c r="M11" s="3">
-        <v>4832</v>
-      </c>
-      <c r="N11" s="3">
-        <v>5109</v>
-      </c>
-      <c r="O11" s="3">
-        <v>5442</v>
-      </c>
-      <c r="P11" s="3">
-        <v>5841</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>6320</v>
+        <v>3394</v>
+      </c>
+      <c r="F11">
+        <v>3605</v>
+      </c>
+      <c r="G11">
+        <v>3679</v>
+      </c>
+      <c r="H11">
+        <v>4067</v>
+      </c>
+      <c r="I11">
+        <v>4174</v>
+      </c>
+      <c r="J11">
+        <v>4302</v>
+      </c>
+      <c r="K11">
+        <v>4456</v>
+      </c>
+      <c r="L11">
+        <v>4641</v>
+      </c>
+      <c r="M11">
+        <v>4863</v>
+      </c>
+      <c r="N11">
+        <v>5129</v>
+      </c>
+      <c r="O11">
+        <v>5448</v>
+      </c>
+      <c r="P11">
+        <v>5831</v>
+      </c>
+      <c r="Q11">
+        <v>6290</v>
       </c>
     </row>
     <row r="12" spans="2:17">
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12">
         <v>134</v>
@@ -2000,46 +3940,46 @@
       <c r="E12">
         <v>139</v>
       </c>
-      <c r="F12" s="3">
-        <v>142</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="F12">
+        <v>150</v>
+      </c>
+      <c r="G12">
         <v>154</v>
       </c>
-      <c r="H12" s="3">
-        <v>159</v>
-      </c>
-      <c r="I12" s="3">
-        <v>165</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="H12">
+        <v>174</v>
+      </c>
+      <c r="I12">
+        <v>180</v>
+      </c>
+      <c r="J12">
         <v>187</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12">
         <v>195</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12">
         <v>205</v>
       </c>
-      <c r="M12" s="3">
-        <v>216</v>
-      </c>
-      <c r="N12" s="3">
-        <v>230</v>
-      </c>
-      <c r="O12" s="3">
-        <v>247</v>
-      </c>
-      <c r="P12" s="3">
-        <v>267</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>291</v>
+      <c r="M12">
+        <v>217</v>
+      </c>
+      <c r="N12">
+        <v>231</v>
+      </c>
+      <c r="O12">
+        <v>248</v>
+      </c>
+      <c r="P12">
+        <v>268</v>
+      </c>
+      <c r="Q12">
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="2:17">
       <c r="B13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C13">
         <v>35</v>
@@ -2050,96 +3990,96 @@
       <c r="E13">
         <v>39</v>
       </c>
-      <c r="F13" s="3">
-        <v>42</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="F13">
+        <v>49</v>
+      </c>
+      <c r="G13">
         <v>52</v>
       </c>
-      <c r="H13" s="3">
-        <v>56</v>
-      </c>
-      <c r="I13" s="3">
-        <v>61</v>
-      </c>
-      <c r="J13" s="3">
+      <c r="H13">
+        <v>70</v>
+      </c>
+      <c r="I13">
+        <v>75</v>
+      </c>
+      <c r="J13">
         <v>81</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13">
         <v>88</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13">
         <v>97</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13">
         <v>107</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N13">
         <v>119</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O13">
         <v>134</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P13">
         <v>152</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="Q13">
         <v>174</v>
       </c>
     </row>
     <row r="14" spans="2:17">
       <c r="B14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C14">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D14">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="E14">
-        <v>96</v>
-      </c>
-      <c r="F14" s="3">
-        <v>116</v>
-      </c>
-      <c r="G14" s="3">
+        <v>107</v>
+      </c>
+      <c r="F14">
+        <v>168</v>
+      </c>
+      <c r="G14">
         <v>190</v>
       </c>
-      <c r="H14" s="3">
-        <v>219</v>
-      </c>
-      <c r="I14" s="3">
-        <v>254</v>
-      </c>
-      <c r="J14" s="3">
-        <v>395</v>
-      </c>
-      <c r="K14" s="3">
-        <v>446</v>
-      </c>
-      <c r="L14" s="3">
-        <v>507</v>
-      </c>
-      <c r="M14" s="3">
-        <v>580</v>
-      </c>
-      <c r="N14" s="3">
-        <v>668</v>
-      </c>
-      <c r="O14" s="3">
-        <v>773</v>
-      </c>
-      <c r="P14" s="3">
-        <v>899</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>1050</v>
+      <c r="H14">
+        <v>303</v>
+      </c>
+      <c r="I14">
+        <v>334</v>
+      </c>
+      <c r="J14">
+        <v>371</v>
+      </c>
+      <c r="K14">
+        <v>416</v>
+      </c>
+      <c r="L14">
+        <v>470</v>
+      </c>
+      <c r="M14">
+        <v>535</v>
+      </c>
+      <c r="N14">
+        <v>612</v>
+      </c>
+      <c r="O14">
+        <v>705</v>
+      </c>
+      <c r="P14">
+        <v>816</v>
+      </c>
+      <c r="Q14">
+        <v>950</v>
       </c>
     </row>
     <row r="15" spans="2:17">
       <c r="B15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C15">
         <v>27</v>
@@ -2150,419 +4090,41 @@
       <c r="E15">
         <v>31</v>
       </c>
-      <c r="F15" s="3">
-        <v>33</v>
-      </c>
-      <c r="G15" s="3">
-        <v>41</v>
-      </c>
-      <c r="H15" s="3">
-        <v>44</v>
-      </c>
-      <c r="I15" s="3">
-        <v>48</v>
-      </c>
-      <c r="J15" s="3">
-        <v>64</v>
-      </c>
-      <c r="K15" s="3">
-        <v>70</v>
-      </c>
-      <c r="L15" s="3">
-        <v>77</v>
-      </c>
-      <c r="M15" s="3">
-        <v>85</v>
-      </c>
-      <c r="N15" s="3">
-        <v>95</v>
-      </c>
-      <c r="O15" s="3">
-        <v>107</v>
-      </c>
-      <c r="P15" s="3">
-        <v>121</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>138</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="G2:H2"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34FF811B-0A96-44BC-B800-8ED1B0744A50}">
-  <dimension ref="B1:Q15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="1" width="0.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:17" ht="3.75" customHeight="1"/>
-    <row r="2" spans="2:17">
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17">
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.93</v>
-      </c>
-      <c r="G3">
-        <v>29</v>
-      </c>
-      <c r="H3">
-        <v>-1</v>
-      </c>
-      <c r="I3">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17">
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1.8009999999999999</v>
-      </c>
-      <c r="G4">
-        <v>36</v>
-      </c>
-      <c r="H4">
-        <v>-2</v>
-      </c>
-      <c r="I4">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17">
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1.17</v>
-      </c>
-      <c r="G5">
-        <v>25</v>
-      </c>
-      <c r="H5">
-        <v>-1</v>
-      </c>
-      <c r="I5">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17">
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.78</v>
-      </c>
-      <c r="G6">
-        <v>24</v>
-      </c>
-      <c r="H6">
-        <v>-2</v>
-      </c>
-      <c r="I6">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17">
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7">
-        <v>-1</v>
-      </c>
-      <c r="I7">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17">
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.46</v>
-      </c>
-      <c r="G8">
-        <v>10</v>
-      </c>
-      <c r="H8">
-        <v>-1</v>
-      </c>
-      <c r="I8">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" ht="3.75" customHeight="1"/>
-    <row r="10" spans="2:17">
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>4</v>
-      </c>
-      <c r="G10">
-        <v>5</v>
-      </c>
-      <c r="H10">
-        <v>6</v>
-      </c>
-      <c r="I10">
-        <v>7</v>
-      </c>
-      <c r="J10">
-        <v>8</v>
-      </c>
-      <c r="K10">
-        <v>9</v>
-      </c>
-      <c r="L10">
-        <v>10</v>
-      </c>
-      <c r="M10">
-        <v>11</v>
-      </c>
-      <c r="N10">
-        <v>12</v>
-      </c>
-      <c r="O10">
-        <v>13</v>
-      </c>
-      <c r="P10">
-        <v>14</v>
-      </c>
-      <c r="Q10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17">
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11">
-        <v>3300</v>
-      </c>
-      <c r="D11">
-        <v>3343</v>
-      </c>
-      <c r="E11">
-        <v>3394</v>
-      </c>
-      <c r="F11" s="3">
-        <v>3605</v>
-      </c>
-      <c r="G11" s="3">
-        <v>3679</v>
-      </c>
-      <c r="H11" s="3">
-        <v>4067</v>
-      </c>
-      <c r="I11" s="3">
-        <v>4174</v>
-      </c>
-      <c r="J11" s="3">
-        <v>4302</v>
-      </c>
-      <c r="K11" s="3">
-        <v>4456</v>
-      </c>
-      <c r="L11" s="3">
-        <v>4641</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17">
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>134</v>
-      </c>
-      <c r="D12">
-        <v>136</v>
-      </c>
-      <c r="E12">
+      <c r="F15">
+        <v>39</v>
+      </c>
+      <c r="G15">
+        <v>42</v>
+      </c>
+      <c r="H15">
+        <v>56</v>
+      </c>
+      <c r="I15">
+        <v>60</v>
+      </c>
+      <c r="J15">
+        <v>65</v>
+      </c>
+      <c r="K15">
+        <v>71</v>
+      </c>
+      <c r="L15">
+        <v>78</v>
+      </c>
+      <c r="M15">
+        <v>86</v>
+      </c>
+      <c r="N15">
+        <v>96</v>
+      </c>
+      <c r="O15">
+        <v>108</v>
+      </c>
+      <c r="P15">
+        <v>122</v>
+      </c>
+      <c r="Q15">
         <v>139</v>
-      </c>
-      <c r="F12" s="3">
-        <v>150</v>
-      </c>
-      <c r="G12" s="3">
-        <v>154</v>
-      </c>
-      <c r="H12" s="3">
-        <v>174</v>
-      </c>
-      <c r="I12" s="3">
-        <v>180</v>
-      </c>
-      <c r="J12" s="3">
-        <v>187</v>
-      </c>
-      <c r="K12" s="3">
-        <v>195</v>
-      </c>
-      <c r="L12" s="3">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17">
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13">
-        <v>35</v>
-      </c>
-      <c r="D13">
-        <v>37</v>
-      </c>
-      <c r="E13">
-        <v>39</v>
-      </c>
-      <c r="F13" s="3">
-        <v>49</v>
-      </c>
-      <c r="G13" s="3">
-        <v>52</v>
-      </c>
-      <c r="H13" s="3">
-        <v>70</v>
-      </c>
-      <c r="I13" s="3">
-        <v>75</v>
-      </c>
-      <c r="J13" s="3">
-        <v>81</v>
-      </c>
-      <c r="K13" s="3">
-        <v>88</v>
-      </c>
-      <c r="L13" s="3">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17">
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14">
-        <v>80</v>
-      </c>
-      <c r="D14">
-        <v>92</v>
-      </c>
-      <c r="E14">
-        <v>107</v>
-      </c>
-      <c r="F14" s="3">
-        <v>168</v>
-      </c>
-      <c r="G14" s="3">
-        <v>190</v>
-      </c>
-      <c r="H14" s="3">
-        <v>303</v>
-      </c>
-      <c r="I14" s="3">
-        <v>334</v>
-      </c>
-      <c r="J14" s="3">
-        <v>371</v>
-      </c>
-      <c r="K14" s="3">
-        <v>416</v>
-      </c>
-      <c r="L14" s="3">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17">
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15">
-        <v>27</v>
-      </c>
-      <c r="D15">
-        <v>29</v>
-      </c>
-      <c r="E15">
-        <v>31</v>
-      </c>
-      <c r="F15" s="3">
-        <v>39</v>
-      </c>
-      <c r="G15" s="3">
-        <v>42</v>
-      </c>
-      <c r="H15" s="3">
-        <v>56</v>
-      </c>
-      <c r="I15" s="3">
-        <v>60</v>
-      </c>
-      <c r="J15" s="3">
-        <v>65</v>
-      </c>
-      <c r="K15" s="3">
-        <v>71</v>
-      </c>
-      <c r="L15" s="3">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2576,11 +4138,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E515ECA8-766D-400A-9170-632C7895E6F1}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:Q15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -2590,62 +4151,137 @@
     <row r="1" spans="2:17" ht="3.75" customHeight="1"/>
     <row r="2" spans="2:17">
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
       <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:17">
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2.21</v>
+      </c>
+      <c r="G3">
+        <v>11</v>
+      </c>
       <c r="H3">
         <v>-1</v>
       </c>
+      <c r="I3">
+        <v>240</v>
+      </c>
     </row>
     <row r="4" spans="2:17">
-      <c r="F4" s="1"/>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2.08</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
       <c r="H4">
         <v>-1</v>
       </c>
+      <c r="I4">
+        <v>280</v>
+      </c>
     </row>
     <row r="5" spans="2:17">
-      <c r="F5" s="1"/>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3.8180000000000001</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>-1</v>
+      </c>
+      <c r="I5">
+        <v>161</v>
+      </c>
     </row>
     <row r="6" spans="2:17">
-      <c r="F6" s="1"/>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="G6">
+        <v>8</v>
+      </c>
       <c r="H6">
         <v>-1</v>
       </c>
+      <c r="I6">
+        <v>180</v>
+      </c>
     </row>
     <row r="7" spans="2:17">
-      <c r="F7" s="1"/>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2.87</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
       <c r="H7">
         <v>-1</v>
       </c>
+      <c r="I7">
+        <v>50</v>
+      </c>
     </row>
     <row r="8" spans="2:17">
-      <c r="F8" s="1"/>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="G8">
+        <v>22</v>
+      </c>
       <c r="H8">
         <v>-1</v>
+      </c>
+      <c r="I8">
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="2:17" ht="3.75" customHeight="1"/>
     <row r="10" spans="2:17">
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2695,27 +4331,252 @@
     </row>
     <row r="11" spans="2:17">
       <c r="B11" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>3250</v>
+      </c>
+      <c r="D11">
+        <v>3392</v>
+      </c>
+      <c r="E11">
+        <v>3549</v>
+      </c>
+      <c r="F11">
+        <v>3721</v>
+      </c>
+      <c r="G11">
+        <v>3910</v>
+      </c>
+      <c r="H11">
+        <v>4118</v>
+      </c>
+      <c r="I11">
+        <v>4347</v>
+      </c>
+      <c r="J11">
+        <v>4599</v>
+      </c>
+      <c r="K11">
+        <v>4877</v>
+      </c>
+      <c r="L11">
+        <v>5184</v>
+      </c>
+      <c r="M11">
+        <v>5522</v>
+      </c>
+      <c r="N11">
+        <v>5894</v>
+      </c>
+      <c r="O11">
+        <v>6303</v>
+      </c>
+      <c r="P11">
+        <v>6753</v>
+      </c>
+      <c r="Q11">
+        <v>7249</v>
       </c>
     </row>
     <row r="12" spans="2:17">
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>160</v>
+      </c>
+      <c r="D12">
+        <v>170</v>
+      </c>
+      <c r="E12">
+        <v>180</v>
+      </c>
+      <c r="F12">
+        <v>192</v>
+      </c>
+      <c r="G12">
+        <v>205</v>
+      </c>
+      <c r="H12">
+        <v>219</v>
+      </c>
+      <c r="I12">
+        <v>234</v>
+      </c>
+      <c r="J12">
+        <v>251</v>
+      </c>
+      <c r="K12">
+        <v>270</v>
+      </c>
+      <c r="L12">
+        <v>291</v>
+      </c>
+      <c r="M12">
+        <v>314</v>
+      </c>
+      <c r="N12">
+        <v>339</v>
+      </c>
+      <c r="O12">
+        <v>366</v>
+      </c>
+      <c r="P12">
+        <v>396</v>
+      </c>
+      <c r="Q12">
+        <v>429</v>
       </c>
     </row>
     <row r="13" spans="2:17">
       <c r="B13" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>78</v>
+      </c>
+      <c r="D13">
+        <v>89</v>
+      </c>
+      <c r="E13">
+        <v>101</v>
+      </c>
+      <c r="F13">
+        <v>114</v>
+      </c>
+      <c r="G13">
+        <v>129</v>
+      </c>
+      <c r="H13">
+        <v>145</v>
+      </c>
+      <c r="I13">
+        <v>163</v>
+      </c>
+      <c r="J13">
+        <v>183</v>
+      </c>
+      <c r="K13">
+        <v>205</v>
+      </c>
+      <c r="L13">
+        <v>229</v>
+      </c>
+      <c r="M13">
+        <v>255</v>
+      </c>
+      <c r="N13">
+        <v>284</v>
+      </c>
+      <c r="O13">
+        <v>316</v>
+      </c>
+      <c r="P13">
+        <v>351</v>
+      </c>
+      <c r="Q13">
+        <v>390</v>
       </c>
     </row>
     <row r="14" spans="2:17">
       <c r="B14" t="s">
-        <v>26</v>
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>23</v>
+      </c>
+      <c r="E14">
+        <v>27</v>
+      </c>
+      <c r="F14">
+        <v>31</v>
+      </c>
+      <c r="G14">
+        <v>36</v>
+      </c>
+      <c r="H14">
+        <v>41</v>
+      </c>
+      <c r="I14">
+        <v>46</v>
+      </c>
+      <c r="J14">
+        <v>52</v>
+      </c>
+      <c r="K14">
+        <v>59</v>
+      </c>
+      <c r="L14">
+        <v>66</v>
+      </c>
+      <c r="M14">
+        <v>74</v>
+      </c>
+      <c r="N14">
+        <v>83</v>
+      </c>
+      <c r="O14">
+        <v>93</v>
+      </c>
+      <c r="P14">
+        <v>104</v>
+      </c>
+      <c r="Q14">
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="2:17">
       <c r="B15" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>60</v>
+      </c>
+      <c r="D15">
+        <v>69</v>
+      </c>
+      <c r="E15">
+        <v>78</v>
+      </c>
+      <c r="F15">
+        <v>88</v>
+      </c>
+      <c r="G15">
+        <v>99</v>
+      </c>
+      <c r="H15">
+        <v>112</v>
+      </c>
+      <c r="I15">
+        <v>126</v>
+      </c>
+      <c r="J15">
+        <v>141</v>
+      </c>
+      <c r="K15">
+        <v>158</v>
+      </c>
+      <c r="L15">
+        <v>176</v>
+      </c>
+      <c r="M15">
+        <v>196</v>
+      </c>
+      <c r="N15">
+        <v>218</v>
+      </c>
+      <c r="O15">
+        <v>243</v>
+      </c>
+      <c r="P15">
+        <v>270</v>
+      </c>
+      <c r="Q15">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -2729,11 +4590,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B62B20-3645-406B-BE57-A5130E6C718F}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="B1:Q15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -2743,62 +4603,128 @@
     <row r="1" spans="2:17" ht="3.75" customHeight="1"/>
     <row r="2" spans="2:17">
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
       <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:17">
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2.06</v>
+      </c>
+      <c r="G3">
+        <v>12</v>
+      </c>
       <c r="H3">
         <v>-1</v>
       </c>
+      <c r="I3">
+        <v>190</v>
+      </c>
     </row>
     <row r="4" spans="2:17">
-      <c r="F4" s="1"/>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="G4">
+        <v>32</v>
+      </c>
       <c r="H4">
         <v>-1</v>
       </c>
+      <c r="I4">
+        <v>210</v>
+      </c>
     </row>
     <row r="5" spans="2:17">
-      <c r="F5" s="1"/>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>-1</v>
+      </c>
+      <c r="I5">
+        <v>370</v>
+      </c>
     </row>
     <row r="6" spans="2:17">
-      <c r="F6" s="1"/>
-      <c r="H6">
-        <v>-1</v>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:17">
-      <c r="F7" s="1"/>
-      <c r="H7">
-        <v>-1</v>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:17">
-      <c r="F8" s="1"/>
-      <c r="H8">
-        <v>-1</v>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:17" ht="3.75" customHeight="1"/>
     <row r="10" spans="2:17">
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2848,27 +4774,252 @@
     </row>
     <row r="11" spans="2:17">
       <c r="B11" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>3000</v>
+      </c>
+      <c r="D11">
+        <v>3031</v>
+      </c>
+      <c r="E11">
+        <v>3068</v>
+      </c>
+      <c r="F11">
+        <v>3112</v>
+      </c>
+      <c r="G11">
+        <v>3273</v>
+      </c>
+      <c r="H11">
+        <v>3337</v>
+      </c>
+      <c r="I11">
+        <v>3629</v>
+      </c>
+      <c r="J11">
+        <v>3721</v>
+      </c>
+      <c r="K11">
+        <v>3832</v>
+      </c>
+      <c r="L11">
+        <v>3965</v>
+      </c>
+      <c r="M11">
+        <v>4125</v>
+      </c>
+      <c r="N11">
+        <v>4316</v>
+      </c>
+      <c r="O11">
+        <v>4546</v>
+      </c>
+      <c r="P11">
+        <v>4821</v>
+      </c>
+      <c r="Q11">
+        <v>5152</v>
       </c>
     </row>
     <row r="12" spans="2:17">
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>146</v>
+      </c>
+      <c r="D12">
+        <v>151</v>
+      </c>
+      <c r="E12">
+        <v>157</v>
+      </c>
+      <c r="F12">
+        <v>164</v>
+      </c>
+      <c r="G12">
+        <v>191</v>
+      </c>
+      <c r="H12">
+        <v>202</v>
+      </c>
+      <c r="I12">
+        <v>250</v>
+      </c>
+      <c r="J12">
+        <v>265</v>
+      </c>
+      <c r="K12">
+        <v>283</v>
+      </c>
+      <c r="L12">
+        <v>305</v>
+      </c>
+      <c r="M12">
+        <v>331</v>
+      </c>
+      <c r="N12">
+        <v>363</v>
+      </c>
+      <c r="O12">
+        <v>401</v>
+      </c>
+      <c r="P12">
+        <v>446</v>
+      </c>
+      <c r="Q12">
+        <v>500</v>
       </c>
     </row>
     <row r="13" spans="2:17">
       <c r="B13" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>50</v>
+      </c>
+      <c r="D13">
+        <v>53</v>
+      </c>
+      <c r="E13">
+        <v>56</v>
+      </c>
+      <c r="F13">
+        <v>60</v>
+      </c>
+      <c r="G13">
+        <v>75</v>
+      </c>
+      <c r="H13">
+        <v>81</v>
+      </c>
+      <c r="I13">
+        <v>108</v>
+      </c>
+      <c r="J13">
+        <v>117</v>
+      </c>
+      <c r="K13">
+        <v>127</v>
+      </c>
+      <c r="L13">
+        <v>139</v>
+      </c>
+      <c r="M13">
+        <v>154</v>
+      </c>
+      <c r="N13">
+        <v>172</v>
+      </c>
+      <c r="O13">
+        <v>193</v>
+      </c>
+      <c r="P13">
+        <v>219</v>
+      </c>
+      <c r="Q13">
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="2:17">
       <c r="B14" t="s">
-        <v>26</v>
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>23</v>
+      </c>
+      <c r="F14">
+        <v>25</v>
+      </c>
+      <c r="G14">
+        <v>32</v>
+      </c>
+      <c r="H14">
+        <v>35</v>
+      </c>
+      <c r="I14">
+        <v>49</v>
+      </c>
+      <c r="J14">
+        <v>53</v>
+      </c>
+      <c r="K14">
+        <v>58</v>
+      </c>
+      <c r="L14">
+        <v>64</v>
+      </c>
+      <c r="M14">
+        <v>71</v>
+      </c>
+      <c r="N14">
+        <v>80</v>
+      </c>
+      <c r="O14">
+        <v>91</v>
+      </c>
+      <c r="P14">
+        <v>104</v>
+      </c>
+      <c r="Q14">
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="2:17">
       <c r="B15" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>30</v>
+      </c>
+      <c r="D15">
+        <v>32</v>
+      </c>
+      <c r="E15">
+        <v>34</v>
+      </c>
+      <c r="F15">
+        <v>36</v>
+      </c>
+      <c r="G15">
+        <v>45</v>
+      </c>
+      <c r="H15">
+        <v>49</v>
+      </c>
+      <c r="I15">
+        <v>65</v>
+      </c>
+      <c r="J15">
+        <v>70</v>
+      </c>
+      <c r="K15">
+        <v>76</v>
+      </c>
+      <c r="L15">
+        <v>83</v>
+      </c>
+      <c r="M15">
+        <v>92</v>
+      </c>
+      <c r="N15">
+        <v>103</v>
+      </c>
+      <c r="O15">
+        <v>116</v>
+      </c>
+      <c r="P15">
+        <v>131</v>
+      </c>
+      <c r="Q15">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2882,11 +5033,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC2B33C-E002-4F49-9112-1A80A58AD366}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="B1:Q15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -2896,62 +5046,137 @@
     <row r="1" spans="2:17" ht="3.75" customHeight="1"/>
     <row r="2" spans="2:17">
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
       <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:17">
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="G3">
+        <v>14</v>
+      </c>
       <c r="H3">
         <v>-1</v>
       </c>
+      <c r="I3">
+        <v>270</v>
+      </c>
     </row>
     <row r="4" spans="2:17">
-      <c r="F4" s="1"/>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
       <c r="H4">
         <v>-1</v>
       </c>
+      <c r="I4">
+        <v>190</v>
+      </c>
     </row>
     <row r="5" spans="2:17">
-      <c r="F5" s="1"/>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="G5">
+        <v>16</v>
+      </c>
+      <c r="H5">
+        <v>-1</v>
+      </c>
+      <c r="I5">
+        <v>672</v>
+      </c>
     </row>
     <row r="6" spans="2:17">
-      <c r="F6" s="1"/>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
       <c r="H6">
         <v>-1</v>
       </c>
+      <c r="I6">
+        <v>220</v>
+      </c>
     </row>
     <row r="7" spans="2:17">
-      <c r="F7" s="1"/>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1.32</v>
+      </c>
+      <c r="G7">
+        <v>9</v>
+      </c>
       <c r="H7">
         <v>-1</v>
       </c>
+      <c r="I7">
+        <v>360</v>
+      </c>
     </row>
     <row r="8" spans="2:17">
-      <c r="F8" s="1"/>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
       <c r="H8">
         <v>-1</v>
+      </c>
+      <c r="I8">
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="2:17" ht="3.75" customHeight="1"/>
     <row r="10" spans="2:17">
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -3001,27 +5226,252 @@
     </row>
     <row r="11" spans="2:17">
       <c r="B11" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>3100</v>
+      </c>
+      <c r="D11">
+        <v>3170</v>
+      </c>
+      <c r="E11">
+        <v>3250</v>
+      </c>
+      <c r="F11">
+        <v>3658</v>
+      </c>
+      <c r="G11">
+        <v>3764</v>
+      </c>
+      <c r="H11">
+        <v>3886</v>
+      </c>
+      <c r="I11">
+        <v>4027</v>
+      </c>
+      <c r="J11">
+        <v>4189</v>
+      </c>
+      <c r="K11">
+        <v>4375</v>
+      </c>
+      <c r="L11">
+        <v>4589</v>
+      </c>
+      <c r="M11">
+        <v>4835</v>
+      </c>
+      <c r="N11">
+        <v>5118</v>
+      </c>
+      <c r="O11">
+        <v>5444</v>
+      </c>
+      <c r="P11">
+        <v>5819</v>
+      </c>
+      <c r="Q11">
+        <v>6250</v>
       </c>
     </row>
     <row r="12" spans="2:17">
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>160</v>
+      </c>
+      <c r="D12">
+        <v>171</v>
+      </c>
+      <c r="E12">
+        <v>184</v>
+      </c>
+      <c r="F12">
+        <v>249</v>
+      </c>
+      <c r="G12">
+        <v>266</v>
+      </c>
+      <c r="H12">
+        <v>285</v>
+      </c>
+      <c r="I12">
+        <v>307</v>
+      </c>
+      <c r="J12">
+        <v>333</v>
+      </c>
+      <c r="K12">
+        <v>363</v>
+      </c>
+      <c r="L12">
+        <v>397</v>
+      </c>
+      <c r="M12">
+        <v>436</v>
+      </c>
+      <c r="N12">
+        <v>481</v>
+      </c>
+      <c r="O12">
+        <v>533</v>
+      </c>
+      <c r="P12">
+        <v>592</v>
+      </c>
+      <c r="Q12">
+        <v>660</v>
       </c>
     </row>
     <row r="13" spans="2:17">
       <c r="B13" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>40</v>
+      </c>
+      <c r="D13">
+        <v>46</v>
+      </c>
+      <c r="E13">
+        <v>52</v>
+      </c>
+      <c r="F13">
+        <v>84</v>
+      </c>
+      <c r="G13">
+        <v>92</v>
+      </c>
+      <c r="H13">
+        <v>102</v>
+      </c>
+      <c r="I13">
+        <v>113</v>
+      </c>
+      <c r="J13">
+        <v>126</v>
+      </c>
+      <c r="K13">
+        <v>141</v>
+      </c>
+      <c r="L13">
+        <v>158</v>
+      </c>
+      <c r="M13">
+        <v>178</v>
+      </c>
+      <c r="N13">
+        <v>200</v>
+      </c>
+      <c r="O13">
+        <v>226</v>
+      </c>
+      <c r="P13">
+        <v>256</v>
+      </c>
+      <c r="Q13">
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="2:17">
       <c r="B14" t="s">
-        <v>26</v>
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>24</v>
+      </c>
+      <c r="F14">
+        <v>36</v>
+      </c>
+      <c r="G14">
+        <v>39</v>
+      </c>
+      <c r="H14">
+        <v>43</v>
+      </c>
+      <c r="I14">
+        <v>47</v>
+      </c>
+      <c r="J14">
+        <v>52</v>
+      </c>
+      <c r="K14">
+        <v>58</v>
+      </c>
+      <c r="L14">
+        <v>65</v>
+      </c>
+      <c r="M14">
+        <v>73</v>
+      </c>
+      <c r="N14">
+        <v>82</v>
+      </c>
+      <c r="O14">
+        <v>92</v>
+      </c>
+      <c r="P14">
+        <v>103</v>
+      </c>
+      <c r="Q14">
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="2:17">
       <c r="B15" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>30</v>
+      </c>
+      <c r="D15">
+        <v>34</v>
+      </c>
+      <c r="E15">
+        <v>39</v>
+      </c>
+      <c r="F15">
+        <v>62</v>
+      </c>
+      <c r="G15">
+        <v>68</v>
+      </c>
+      <c r="H15">
+        <v>75</v>
+      </c>
+      <c r="I15">
+        <v>83</v>
+      </c>
+      <c r="J15">
+        <v>92</v>
+      </c>
+      <c r="K15">
+        <v>103</v>
+      </c>
+      <c r="L15">
+        <v>115</v>
+      </c>
+      <c r="M15">
+        <v>129</v>
+      </c>
+      <c r="N15">
+        <v>145</v>
+      </c>
+      <c r="O15">
+        <v>164</v>
+      </c>
+      <c r="P15">
+        <v>185</v>
+      </c>
+      <c r="Q15">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -3035,11 +5485,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{959D9428-1C0B-44A4-B759-2F0664FB0C53}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="B1:Q15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -3049,62 +5498,134 @@
     <row r="1" spans="2:17" ht="3.75" customHeight="1"/>
     <row r="2" spans="2:17">
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
       <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:17">
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
       <c r="H3">
         <v>-1</v>
       </c>
+      <c r="I3">
+        <v>210</v>
+      </c>
     </row>
     <row r="4" spans="2:17">
-      <c r="F4" s="1"/>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.23</v>
+      </c>
+      <c r="G4">
+        <v>14</v>
+      </c>
       <c r="H4">
         <v>-1</v>
       </c>
+      <c r="I4">
+        <v>374</v>
+      </c>
     </row>
     <row r="5" spans="2:17">
-      <c r="F5" s="1"/>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G5">
+        <v>14</v>
+      </c>
+      <c r="I5">
+        <v>400</v>
+      </c>
     </row>
     <row r="6" spans="2:17">
-      <c r="F6" s="1"/>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="G6">
+        <v>18</v>
+      </c>
       <c r="H6">
         <v>-1</v>
       </c>
+      <c r="I6">
+        <v>600</v>
+      </c>
     </row>
     <row r="7" spans="2:17">
-      <c r="F7" s="1"/>
+      <c r="E7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2.21</v>
+      </c>
+      <c r="G7">
+        <v>21</v>
+      </c>
       <c r="H7">
         <v>-1</v>
       </c>
+      <c r="I7">
+        <v>910</v>
+      </c>
     </row>
     <row r="8" spans="2:17">
-      <c r="F8" s="1"/>
+      <c r="E8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="G8">
+        <v>20</v>
+      </c>
       <c r="H8">
         <v>-1</v>
+      </c>
+      <c r="I8">
+        <v>880</v>
       </c>
     </row>
     <row r="9" spans="2:17" ht="3.75" customHeight="1"/>
     <row r="10" spans="2:17">
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -3154,27 +5675,252 @@
     </row>
     <row r="11" spans="2:17">
       <c r="B11" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>3024</v>
+      </c>
+      <c r="D11">
+        <v>3071</v>
+      </c>
+      <c r="E11">
+        <v>3127</v>
+      </c>
+      <c r="F11">
+        <v>3195</v>
+      </c>
+      <c r="G11">
+        <v>3440</v>
+      </c>
+      <c r="H11">
+        <v>3538</v>
+      </c>
+      <c r="I11">
+        <v>3983</v>
+      </c>
+      <c r="J11">
+        <v>4124</v>
+      </c>
+      <c r="K11">
+        <v>4293</v>
+      </c>
+      <c r="L11">
+        <v>4495</v>
+      </c>
+      <c r="M11">
+        <v>4738</v>
+      </c>
+      <c r="N11">
+        <v>5029</v>
+      </c>
+      <c r="O11">
+        <v>5378</v>
+      </c>
+      <c r="P11">
+        <v>5797</v>
+      </c>
+      <c r="Q11">
+        <v>6300</v>
       </c>
     </row>
     <row r="12" spans="2:17">
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>200</v>
+      </c>
+      <c r="D12">
+        <v>207</v>
+      </c>
+      <c r="E12">
+        <v>216</v>
+      </c>
+      <c r="F12">
+        <v>227</v>
+      </c>
+      <c r="G12">
+        <v>265</v>
+      </c>
+      <c r="H12">
+        <v>280</v>
+      </c>
+      <c r="I12">
+        <v>349</v>
+      </c>
+      <c r="J12">
+        <v>371</v>
+      </c>
+      <c r="K12">
+        <v>397</v>
+      </c>
+      <c r="L12">
+        <v>429</v>
+      </c>
+      <c r="M12">
+        <v>467</v>
+      </c>
+      <c r="N12">
+        <v>512</v>
+      </c>
+      <c r="O12">
+        <v>567</v>
+      </c>
+      <c r="P12">
+        <v>632</v>
+      </c>
+      <c r="Q12">
+        <v>710</v>
       </c>
     </row>
     <row r="13" spans="2:17">
       <c r="B13" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>58</v>
+      </c>
+      <c r="D13">
+        <v>61</v>
+      </c>
+      <c r="E13">
+        <v>65</v>
+      </c>
+      <c r="F13">
+        <v>70</v>
+      </c>
+      <c r="G13">
+        <v>87</v>
+      </c>
+      <c r="H13">
+        <v>94</v>
+      </c>
+      <c r="I13">
+        <v>125</v>
+      </c>
+      <c r="J13">
+        <v>135</v>
+      </c>
+      <c r="K13">
+        <v>147</v>
+      </c>
+      <c r="L13">
+        <v>161</v>
+      </c>
+      <c r="M13">
+        <v>178</v>
+      </c>
+      <c r="N13">
+        <v>199</v>
+      </c>
+      <c r="O13">
+        <v>224</v>
+      </c>
+      <c r="P13">
+        <v>254</v>
+      </c>
+      <c r="Q13">
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="2:17">
       <c r="B14" t="s">
-        <v>26</v>
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>23</v>
+      </c>
+      <c r="F14">
+        <v>25</v>
+      </c>
+      <c r="G14">
+        <v>32</v>
+      </c>
+      <c r="H14">
+        <v>35</v>
+      </c>
+      <c r="I14">
+        <v>48</v>
+      </c>
+      <c r="J14">
+        <v>52</v>
+      </c>
+      <c r="K14">
+        <v>57</v>
+      </c>
+      <c r="L14">
+        <v>63</v>
+      </c>
+      <c r="M14">
+        <v>70</v>
+      </c>
+      <c r="N14">
+        <v>79</v>
+      </c>
+      <c r="O14">
+        <v>89</v>
+      </c>
+      <c r="P14">
+        <v>102</v>
+      </c>
+      <c r="Q14">
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="2:17">
       <c r="B15" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>40</v>
+      </c>
+      <c r="D15">
+        <v>42</v>
+      </c>
+      <c r="E15">
+        <v>45</v>
+      </c>
+      <c r="F15">
+        <v>48</v>
+      </c>
+      <c r="G15">
+        <v>60</v>
+      </c>
+      <c r="H15">
+        <v>65</v>
+      </c>
+      <c r="I15">
+        <v>87</v>
+      </c>
+      <c r="J15">
+        <v>94</v>
+      </c>
+      <c r="K15">
+        <v>102</v>
+      </c>
+      <c r="L15">
+        <v>112</v>
+      </c>
+      <c r="M15">
+        <v>124</v>
+      </c>
+      <c r="N15">
+        <v>138</v>
+      </c>
+      <c r="O15">
+        <v>155</v>
+      </c>
+      <c r="P15">
+        <v>175</v>
+      </c>
+      <c r="Q15">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -3188,11 +5934,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01A5AB5-3A62-4843-AEFF-4E7697807BC0}">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="B1:Q15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -3202,62 +5947,131 @@
     <row r="1" spans="2:17" ht="3.75" customHeight="1"/>
     <row r="2" spans="2:17">
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
       <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:17">
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="G3">
+        <v>16</v>
+      </c>
       <c r="H3">
         <v>-1</v>
       </c>
+      <c r="I3">
+        <v>150</v>
+      </c>
     </row>
     <row r="4" spans="2:17">
-      <c r="F4" s="1"/>
+      <c r="E4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="G4">
+        <v>9</v>
+      </c>
       <c r="H4">
         <v>-1</v>
       </c>
+      <c r="I4">
+        <v>360</v>
+      </c>
     </row>
     <row r="5" spans="2:17">
-      <c r="F5" s="1"/>
+      <c r="E5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2.72</v>
+      </c>
+      <c r="G5">
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <v>-1</v>
+      </c>
+      <c r="I5">
+        <v>280</v>
+      </c>
     </row>
     <row r="6" spans="2:17">
-      <c r="F6" s="1"/>
-      <c r="H6">
-        <v>-1</v>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:17">
-      <c r="F7" s="1"/>
-      <c r="H7">
-        <v>-1</v>
+      <c r="E7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:17">
-      <c r="F8" s="1"/>
+      <c r="E8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.18</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
       <c r="H8">
         <v>-1</v>
+      </c>
+      <c r="I8">
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="2:17" ht="3.75" customHeight="1"/>
     <row r="10" spans="2:17">
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -3307,27 +6121,252 @@
     </row>
     <row r="11" spans="2:17">
       <c r="B11" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>3000</v>
+      </c>
+      <c r="D11">
+        <v>3062</v>
+      </c>
+      <c r="E11">
+        <v>3136</v>
+      </c>
+      <c r="F11">
+        <v>3225</v>
+      </c>
+      <c r="G11">
+        <v>3547</v>
+      </c>
+      <c r="H11">
+        <v>3675</v>
+      </c>
+      <c r="I11">
+        <v>4259</v>
+      </c>
+      <c r="J11">
+        <v>4444</v>
+      </c>
+      <c r="K11">
+        <v>4665</v>
+      </c>
+      <c r="L11">
+        <v>4931</v>
+      </c>
+      <c r="M11">
+        <v>5250</v>
+      </c>
+      <c r="N11">
+        <v>5632</v>
+      </c>
+      <c r="O11">
+        <v>6091</v>
+      </c>
+      <c r="P11">
+        <v>6641</v>
+      </c>
+      <c r="Q11">
+        <v>7302</v>
       </c>
     </row>
     <row r="12" spans="2:17">
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>168</v>
+      </c>
+      <c r="D12">
+        <v>171</v>
+      </c>
+      <c r="E12">
+        <v>174</v>
+      </c>
+      <c r="F12">
+        <v>178</v>
+      </c>
+      <c r="G12">
+        <v>192</v>
+      </c>
+      <c r="H12">
+        <v>198</v>
+      </c>
+      <c r="I12">
+        <v>223</v>
+      </c>
+      <c r="J12">
+        <v>231</v>
+      </c>
+      <c r="K12">
+        <v>241</v>
+      </c>
+      <c r="L12">
+        <v>253</v>
+      </c>
+      <c r="M12">
+        <v>267</v>
+      </c>
+      <c r="N12">
+        <v>284</v>
+      </c>
+      <c r="O12">
+        <v>304</v>
+      </c>
+      <c r="P12">
+        <v>328</v>
+      </c>
+      <c r="Q12">
+        <v>357</v>
       </c>
     </row>
     <row r="13" spans="2:17">
       <c r="B13" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>50</v>
+      </c>
+      <c r="D13">
+        <v>53</v>
+      </c>
+      <c r="E13">
+        <v>56</v>
+      </c>
+      <c r="F13">
+        <v>60</v>
+      </c>
+      <c r="G13">
+        <v>75</v>
+      </c>
+      <c r="H13">
+        <v>81</v>
+      </c>
+      <c r="I13">
+        <v>108</v>
+      </c>
+      <c r="J13">
+        <v>117</v>
+      </c>
+      <c r="K13">
+        <v>127</v>
+      </c>
+      <c r="L13">
+        <v>139</v>
+      </c>
+      <c r="M13">
+        <v>154</v>
+      </c>
+      <c r="N13">
+        <v>172</v>
+      </c>
+      <c r="O13">
+        <v>193</v>
+      </c>
+      <c r="P13">
+        <v>219</v>
+      </c>
+      <c r="Q13">
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="2:17">
       <c r="B14" t="s">
-        <v>26</v>
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>23</v>
+      </c>
+      <c r="F14">
+        <v>25</v>
+      </c>
+      <c r="G14">
+        <v>32</v>
+      </c>
+      <c r="H14">
+        <v>35</v>
+      </c>
+      <c r="I14">
+        <v>48</v>
+      </c>
+      <c r="J14">
+        <v>52</v>
+      </c>
+      <c r="K14">
+        <v>57</v>
+      </c>
+      <c r="L14">
+        <v>63</v>
+      </c>
+      <c r="M14">
+        <v>70</v>
+      </c>
+      <c r="N14">
+        <v>78</v>
+      </c>
+      <c r="O14">
+        <v>88</v>
+      </c>
+      <c r="P14">
+        <v>100</v>
+      </c>
+      <c r="Q14">
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="2:17">
       <c r="B15" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>35</v>
+      </c>
+      <c r="D15">
+        <v>37</v>
+      </c>
+      <c r="E15">
+        <v>39</v>
+      </c>
+      <c r="F15">
+        <v>42</v>
+      </c>
+      <c r="G15">
+        <v>52</v>
+      </c>
+      <c r="H15">
+        <v>56</v>
+      </c>
+      <c r="I15">
+        <v>75</v>
+      </c>
+      <c r="J15">
+        <v>81</v>
+      </c>
+      <c r="K15">
+        <v>88</v>
+      </c>
+      <c r="L15">
+        <v>97</v>
+      </c>
+      <c r="M15">
+        <v>107</v>
+      </c>
+      <c r="N15">
+        <v>119</v>
+      </c>
+      <c r="O15">
+        <v>134</v>
+      </c>
+      <c r="P15">
+        <v>152</v>
+      </c>
+      <c r="Q15">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
